--- a/Meta/Meta Leetcode Questions/Complete_LeetCode_6months_70.xlsx
+++ b/Meta/Meta Leetcode Questions/Complete_LeetCode_6months_70.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\LeetCode\Meta\Meta Leetcode Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72028FA-83EF-4162-8ABA-D63C097CA46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E23182-9BC9-405F-B51A-F4CAFF130FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,9 +898,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="81.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
